--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Lama3-Sdc2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Lama3-Sdc2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>7.038349</v>
+        <v>5.710286333333333</v>
       </c>
       <c r="H2">
-        <v>21.115047</v>
+        <v>17.130859</v>
       </c>
       <c r="I2">
-        <v>0.8947789352175559</v>
+        <v>0.9479284679134278</v>
       </c>
       <c r="J2">
-        <v>0.894778935217556</v>
+        <v>0.947928467913428</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.248835333333334</v>
+        <v>1.826566</v>
       </c>
       <c r="N2">
-        <v>6.746506</v>
+        <v>5.479698</v>
       </c>
       <c r="O2">
-        <v>0.03590294220158829</v>
+        <v>0.02795372904983374</v>
       </c>
       <c r="P2">
-        <v>0.03590294220158827</v>
+        <v>0.02795372904983374</v>
       </c>
       <c r="Q2">
-        <v>15.82808791953133</v>
+        <v>10.43021486673133</v>
       </c>
       <c r="R2">
-        <v>142.452791275782</v>
+        <v>93.871933800582</v>
       </c>
       <c r="S2">
-        <v>0.03212519639431462</v>
+        <v>0.02649813555067598</v>
       </c>
       <c r="T2">
-        <v>0.03212519639431461</v>
+        <v>0.02649813555067599</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>7.038349</v>
+        <v>5.710286333333333</v>
       </c>
       <c r="H3">
-        <v>21.115047</v>
+        <v>17.130859</v>
       </c>
       <c r="I3">
-        <v>0.8947789352175559</v>
+        <v>0.9479284679134278</v>
       </c>
       <c r="J3">
-        <v>0.894778935217556</v>
+        <v>0.947928467913428</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,28 +620,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>44.29005966666666</v>
+        <v>44.29005966666667</v>
       </c>
       <c r="N3">
         <v>132.870179</v>
       </c>
       <c r="O3">
-        <v>0.7070964373190638</v>
+        <v>0.6778141756295529</v>
       </c>
       <c r="P3">
-        <v>0.7070964373190638</v>
+        <v>0.6778141756295529</v>
       </c>
       <c r="Q3">
-        <v>311.7288971648236</v>
+        <v>252.9089224170846</v>
       </c>
       <c r="R3">
-        <v>2805.560074483413</v>
+        <v>2276.180301753761</v>
       </c>
       <c r="S3">
-        <v>0.6326949972804792</v>
+        <v>0.6425193530345251</v>
       </c>
       <c r="T3">
-        <v>0.6326949972804793</v>
+        <v>0.6425193530345253</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>7.038349</v>
+        <v>5.710286333333333</v>
       </c>
       <c r="H4">
-        <v>21.115047</v>
+        <v>17.130859</v>
       </c>
       <c r="I4">
-        <v>0.8947789352175559</v>
+        <v>0.9479284679134278</v>
       </c>
       <c r="J4">
-        <v>0.894778935217556</v>
+        <v>0.947928467913428</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,33 +682,33 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>16.09762433333333</v>
+        <v>19.10886933333333</v>
       </c>
       <c r="N4">
-        <v>48.292873</v>
+        <v>57.326608</v>
       </c>
       <c r="O4">
-        <v>0.2570006204793479</v>
+        <v>0.2924417490485847</v>
       </c>
       <c r="P4">
-        <v>0.2570006204793479</v>
+        <v>0.2924417490485847</v>
       </c>
       <c r="Q4">
-        <v>113.3006981288923</v>
+        <v>109.1171153995858</v>
       </c>
       <c r="R4">
-        <v>1019.706283160031</v>
+        <v>982.0540385962721</v>
       </c>
       <c r="S4">
-        <v>0.2299587415427621</v>
+        <v>0.277213859129548</v>
       </c>
       <c r="T4">
-        <v>0.2299587415427621</v>
+        <v>0.2772138591295481</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -717,7 +717,7 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -726,46 +726,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.09030199999999999</v>
+        <v>5.710286333333333</v>
       </c>
       <c r="H5">
-        <v>0.270906</v>
+        <v>17.130859</v>
       </c>
       <c r="I5">
-        <v>0.01148001149247014</v>
+        <v>0.9479284679134278</v>
       </c>
       <c r="J5">
-        <v>0.01148001149247014</v>
+        <v>0.947928467913428</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>2.248835333333334</v>
+        <v>0.1169856666666667</v>
       </c>
       <c r="N5">
-        <v>6.746506</v>
+        <v>0.350957</v>
       </c>
       <c r="O5">
-        <v>0.03590294220158829</v>
+        <v>0.001790346272028586</v>
       </c>
       <c r="P5">
-        <v>0.03590294220158827</v>
+        <v>0.001790346272028586</v>
       </c>
       <c r="Q5">
-        <v>0.2030743282706667</v>
+        <v>0.6680216535625555</v>
       </c>
       <c r="R5">
-        <v>1.827668954436</v>
+        <v>6.012194882063</v>
       </c>
       <c r="S5">
-        <v>0.0004121661890877248</v>
+        <v>0.001697120198678575</v>
       </c>
       <c r="T5">
-        <v>0.0004121661890877247</v>
+        <v>0.001697120198678575</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,7 +779,7 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -794,10 +794,10 @@
         <v>0.270906</v>
       </c>
       <c r="I6">
-        <v>0.01148001149247014</v>
+        <v>0.01499046308936143</v>
       </c>
       <c r="J6">
-        <v>0.01148001149247014</v>
+        <v>0.01499046308936143</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>44.29005966666666</v>
+        <v>1.826566</v>
       </c>
       <c r="N6">
-        <v>132.870179</v>
+        <v>5.479698</v>
       </c>
       <c r="O6">
-        <v>0.7070964373190638</v>
+        <v>0.02795372904983374</v>
       </c>
       <c r="P6">
-        <v>0.7070964373190638</v>
+        <v>0.02795372904983374</v>
       </c>
       <c r="Q6">
-        <v>3.999480968019332</v>
+        <v>0.164942562932</v>
       </c>
       <c r="R6">
-        <v>35.99532871217399</v>
+        <v>1.484483066388</v>
       </c>
       <c r="S6">
-        <v>0.008117475226707546</v>
+        <v>0.0004190393435315431</v>
       </c>
       <c r="T6">
-        <v>0.008117475226707546</v>
+        <v>0.0004190393435315432</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,7 +841,7 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -856,10 +856,10 @@
         <v>0.270906</v>
       </c>
       <c r="I7">
-        <v>0.01148001149247014</v>
+        <v>0.01499046308936143</v>
       </c>
       <c r="J7">
-        <v>0.01148001149247014</v>
+        <v>0.01499046308936143</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,33 +868,33 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>16.09762433333333</v>
+        <v>44.29005966666667</v>
       </c>
       <c r="N7">
-        <v>48.292873</v>
+        <v>132.870179</v>
       </c>
       <c r="O7">
-        <v>0.2570006204793479</v>
+        <v>0.6778141756295529</v>
       </c>
       <c r="P7">
-        <v>0.2570006204793479</v>
+        <v>0.6778141756295529</v>
       </c>
       <c r="Q7">
-        <v>1.453647672548666</v>
+        <v>3.999480968019333</v>
       </c>
       <c r="R7">
-        <v>13.082829052938</v>
+        <v>35.995328712174</v>
       </c>
       <c r="S7">
-        <v>0.00295037007667487</v>
+        <v>0.01016074838122076</v>
       </c>
       <c r="T7">
-        <v>0.002950370076674871</v>
+        <v>0.01016074838122076</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
@@ -903,7 +903,7 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -912,16 +912,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.4911496666666667</v>
+        <v>0.09030199999999999</v>
       </c>
       <c r="H8">
-        <v>1.473449</v>
+        <v>0.270906</v>
       </c>
       <c r="I8">
-        <v>0.06243941239237462</v>
+        <v>0.01499046308936143</v>
       </c>
       <c r="J8">
-        <v>0.06243941239237463</v>
+        <v>0.01499046308936143</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -930,33 +930,33 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.248835333333334</v>
+        <v>19.10886933333333</v>
       </c>
       <c r="N8">
-        <v>6.746506</v>
+        <v>57.326608</v>
       </c>
       <c r="O8">
-        <v>0.03590294220158829</v>
+        <v>0.2924417490485847</v>
       </c>
       <c r="P8">
-        <v>0.03590294220158827</v>
+        <v>0.2924417490485847</v>
       </c>
       <c r="Q8">
-        <v>1.104514724354889</v>
+        <v>1.725569118538667</v>
       </c>
       <c r="R8">
-        <v>9.940632519194001</v>
+        <v>15.530122066848</v>
       </c>
       <c r="S8">
-        <v>0.002241758614224561</v>
+        <v>0.004383837244901108</v>
       </c>
       <c r="T8">
-        <v>0.002241758614224561</v>
+        <v>0.004383837244901108</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>25</v>
@@ -965,7 +965,7 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -974,46 +974,46 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.4911496666666667</v>
+        <v>0.09030199999999999</v>
       </c>
       <c r="H9">
-        <v>1.473449</v>
+        <v>0.270906</v>
       </c>
       <c r="I9">
-        <v>0.06243941239237462</v>
+        <v>0.01499046308936143</v>
       </c>
       <c r="J9">
-        <v>0.06243941239237463</v>
+        <v>0.01499046308936143</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>44.29005966666666</v>
+        <v>0.1169856666666667</v>
       </c>
       <c r="N9">
-        <v>132.870179</v>
+        <v>0.350957</v>
       </c>
       <c r="O9">
-        <v>0.7070964373190638</v>
+        <v>0.001790346272028586</v>
       </c>
       <c r="P9">
-        <v>0.7070964373190638</v>
+        <v>0.001790346272028586</v>
       </c>
       <c r="Q9">
-        <v>21.75304804193011</v>
+        <v>0.01056403967133333</v>
       </c>
       <c r="R9">
-        <v>195.777432377371</v>
+        <v>0.09507635704199999</v>
       </c>
       <c r="S9">
-        <v>0.0441506860509439</v>
+        <v>2.683811970802036E-05</v>
       </c>
       <c r="T9">
-        <v>0.0441506860509439</v>
+        <v>2.683811970802037E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,7 +1027,7 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1036,16 +1036,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.4911496666666667</v>
+        <v>0.06176400000000001</v>
       </c>
       <c r="H10">
-        <v>1.473449</v>
+        <v>0.185292</v>
       </c>
       <c r="I10">
-        <v>0.06243941239237462</v>
+        <v>0.01025305045570773</v>
       </c>
       <c r="J10">
-        <v>0.06243941239237463</v>
+        <v>0.01025305045570773</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,33 +1054,33 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>16.09762433333333</v>
+        <v>1.826566</v>
       </c>
       <c r="N10">
-        <v>48.292873</v>
+        <v>5.479698</v>
       </c>
       <c r="O10">
-        <v>0.2570006204793479</v>
+        <v>0.02795372904983374</v>
       </c>
       <c r="P10">
-        <v>0.2570006204793479</v>
+        <v>0.02795372904983374</v>
       </c>
       <c r="Q10">
-        <v>7.906342825441888</v>
+        <v>0.112816022424</v>
       </c>
       <c r="R10">
-        <v>71.157085428977</v>
+        <v>1.015344201816</v>
       </c>
       <c r="S10">
-        <v>0.01604696772720616</v>
+        <v>0.0002866109943731283</v>
       </c>
       <c r="T10">
-        <v>0.01604696772720616</v>
+        <v>0.0002866109943731284</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1089,7 +1089,7 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1098,16 +1098,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.05678</v>
+        <v>0.06176400000000001</v>
       </c>
       <c r="H11">
-        <v>0.17034</v>
+        <v>0.185292</v>
       </c>
       <c r="I11">
-        <v>0.007218389986295482</v>
+        <v>0.01025305045570773</v>
       </c>
       <c r="J11">
-        <v>0.007218389986295483</v>
+        <v>0.01025305045570773</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,43 +1116,43 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>2.248835333333334</v>
+        <v>44.29005966666667</v>
       </c>
       <c r="N11">
-        <v>6.746506</v>
+        <v>132.870179</v>
       </c>
       <c r="O11">
-        <v>0.03590294220158829</v>
+        <v>0.6778141756295529</v>
       </c>
       <c r="P11">
-        <v>0.03590294220158827</v>
+        <v>0.6778141756295529</v>
       </c>
       <c r="Q11">
-        <v>0.1276888702266667</v>
+        <v>2.735531245252</v>
       </c>
       <c r="R11">
-        <v>1.14919983204</v>
+        <v>24.619781207268</v>
       </c>
       <c r="S11">
-        <v>0.0002591614384664904</v>
+        <v>0.006949662942323748</v>
       </c>
       <c r="T11">
-        <v>0.0002591614384664903</v>
+        <v>0.006949662942323749</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
         <v>23</v>
       </c>
-      <c r="B12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" t="s">
-        <v>21</v>
-      </c>
       <c r="E12">
         <v>3</v>
       </c>
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.05678</v>
+        <v>0.06176400000000001</v>
       </c>
       <c r="H12">
-        <v>0.17034</v>
+        <v>0.185292</v>
       </c>
       <c r="I12">
-        <v>0.007218389986295482</v>
+        <v>0.01025305045570773</v>
       </c>
       <c r="J12">
-        <v>0.007218389986295483</v>
+        <v>0.01025305045570773</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,33 +1178,33 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>44.29005966666666</v>
+        <v>19.10886933333333</v>
       </c>
       <c r="N12">
-        <v>132.870179</v>
+        <v>57.326608</v>
       </c>
       <c r="O12">
-        <v>0.7070964373190638</v>
+        <v>0.2924417490485847</v>
       </c>
       <c r="P12">
-        <v>0.7070964373190638</v>
+        <v>0.2924417490485847</v>
       </c>
       <c r="Q12">
-        <v>2.514789587873333</v>
+        <v>1.180240205504</v>
       </c>
       <c r="R12">
-        <v>22.63310629086</v>
+        <v>10.622161849536</v>
       </c>
       <c r="S12">
-        <v>0.005104097842489141</v>
+        <v>0.002998420008350558</v>
       </c>
       <c r="T12">
-        <v>0.005104097842489142</v>
+        <v>0.002998420008350558</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>25</v>
@@ -1213,7 +1213,7 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1222,51 +1222,51 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.05678</v>
+        <v>0.06176400000000001</v>
       </c>
       <c r="H13">
-        <v>0.17034</v>
+        <v>0.185292</v>
       </c>
       <c r="I13">
-        <v>0.007218389986295482</v>
+        <v>0.01025305045570773</v>
       </c>
       <c r="J13">
-        <v>0.007218389986295483</v>
+        <v>0.01025305045570773</v>
       </c>
       <c r="K13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>16.09762433333333</v>
+        <v>0.1169856666666667</v>
       </c>
       <c r="N13">
-        <v>48.292873</v>
+        <v>0.350957</v>
       </c>
       <c r="O13">
-        <v>0.2570006204793479</v>
+        <v>0.001790346272028586</v>
       </c>
       <c r="P13">
-        <v>0.2570006204793479</v>
+        <v>0.001790346272028586</v>
       </c>
       <c r="Q13">
-        <v>0.9140231096466666</v>
+        <v>0.007225502716</v>
       </c>
       <c r="R13">
-        <v>8.22620798682</v>
+        <v>0.06502952444399999</v>
       </c>
       <c r="S13">
-        <v>0.00185513070533985</v>
+        <v>1.835651066029733E-05</v>
       </c>
       <c r="T13">
-        <v>0.001855130705339851</v>
+        <v>1.835651066029734E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.1894393333333333</v>
+        <v>0.05145866666666666</v>
       </c>
       <c r="H14">
-        <v>0.568318</v>
+        <v>0.154376</v>
       </c>
       <c r="I14">
-        <v>0.02408325091130372</v>
+        <v>0.00854232733820314</v>
       </c>
       <c r="J14">
-        <v>0.02408325091130372</v>
+        <v>0.008542327338203143</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,33 +1302,33 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>2.248835333333334</v>
+        <v>1.826566</v>
       </c>
       <c r="N14">
-        <v>6.746506</v>
+        <v>5.479698</v>
       </c>
       <c r="O14">
-        <v>0.03590294220158829</v>
+        <v>0.02795372904983374</v>
       </c>
       <c r="P14">
-        <v>0.03590294220158827</v>
+        <v>0.02795372904983374</v>
       </c>
       <c r="Q14">
-        <v>0.4260178663231111</v>
+        <v>0.09399265093866666</v>
       </c>
       <c r="R14">
-        <v>3.834160796908</v>
+        <v>0.845933858448</v>
       </c>
       <c r="S14">
-        <v>0.000864659565494886</v>
+        <v>0.0002387899038671181</v>
       </c>
       <c r="T14">
-        <v>0.0008646595654948858</v>
+        <v>0.0002387899038671182</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
         <v>25</v>
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.1894393333333333</v>
+        <v>0.05145866666666666</v>
       </c>
       <c r="H15">
-        <v>0.568318</v>
+        <v>0.154376</v>
       </c>
       <c r="I15">
-        <v>0.02408325091130372</v>
+        <v>0.00854232733820314</v>
       </c>
       <c r="J15">
-        <v>0.02408325091130372</v>
+        <v>0.008542327338203143</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,33 +1364,33 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>44.29005966666666</v>
+        <v>44.29005966666667</v>
       </c>
       <c r="N15">
         <v>132.870179</v>
       </c>
       <c r="O15">
-        <v>0.7070964373190638</v>
+        <v>0.6778141756295529</v>
       </c>
       <c r="P15">
-        <v>0.7070964373190638</v>
+        <v>0.6778141756295529</v>
       </c>
       <c r="Q15">
-        <v>8.390279376546886</v>
+        <v>2.279107417033778</v>
       </c>
       <c r="R15">
-        <v>75.51251438892199</v>
+        <v>20.511966753304</v>
       </c>
       <c r="S15">
-        <v>0.01702918091844396</v>
+        <v>0.005790110562701955</v>
       </c>
       <c r="T15">
-        <v>0.01702918091844396</v>
+        <v>0.005790110562701956</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B16" t="s">
         <v>25</v>
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.1894393333333333</v>
+        <v>0.05145866666666666</v>
       </c>
       <c r="H16">
-        <v>0.568318</v>
+        <v>0.154376</v>
       </c>
       <c r="I16">
-        <v>0.02408325091130372</v>
+        <v>0.00854232733820314</v>
       </c>
       <c r="J16">
-        <v>0.02408325091130372</v>
+        <v>0.008542327338203143</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,338 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>16.09762433333333</v>
+        <v>19.10886933333333</v>
       </c>
       <c r="N16">
-        <v>48.292873</v>
+        <v>57.326608</v>
       </c>
       <c r="O16">
-        <v>0.2570006204793479</v>
+        <v>0.2924417490485847</v>
       </c>
       <c r="P16">
-        <v>0.2570006204793479</v>
+        <v>0.2924417490485847</v>
       </c>
       <c r="Q16">
-        <v>3.049523221957111</v>
+        <v>0.9833169374008888</v>
       </c>
       <c r="R16">
-        <v>27.445708997614</v>
+        <v>8.849852436608</v>
       </c>
       <c r="S16">
-        <v>0.006189410427364875</v>
+        <v>0.002498133147729667</v>
       </c>
       <c r="T16">
-        <v>0.006189410427364876</v>
+        <v>0.002498133147729668</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.05145866666666666</v>
+      </c>
+      <c r="H17">
+        <v>0.154376</v>
+      </c>
+      <c r="I17">
+        <v>0.00854232733820314</v>
+      </c>
+      <c r="J17">
+        <v>0.008542327338203143</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M17">
+        <v>0.1169856666666667</v>
+      </c>
+      <c r="N17">
+        <v>0.350957</v>
+      </c>
+      <c r="O17">
+        <v>0.001790346272028586</v>
+      </c>
+      <c r="P17">
+        <v>0.001790346272028586</v>
+      </c>
+      <c r="Q17">
+        <v>0.006019926425777776</v>
+      </c>
+      <c r="R17">
+        <v>0.05417933783199999</v>
+      </c>
+      <c r="S17">
+        <v>1.529372390439987E-05</v>
+      </c>
+      <c r="T17">
+        <v>1.529372390439988E-05</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>0.1101523333333333</v>
+      </c>
+      <c r="H18">
+        <v>0.330457</v>
+      </c>
+      <c r="I18">
+        <v>0.01828569120329971</v>
+      </c>
+      <c r="J18">
+        <v>0.01828569120329971</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>1.826566</v>
+      </c>
+      <c r="N18">
+        <v>5.479698</v>
+      </c>
+      <c r="O18">
+        <v>0.02795372904983374</v>
+      </c>
+      <c r="P18">
+        <v>0.02795372904983374</v>
+      </c>
+      <c r="Q18">
+        <v>0.2012005068873333</v>
+      </c>
+      <c r="R18">
+        <v>1.810804561986</v>
+      </c>
+      <c r="S18">
+        <v>0.0005111532573859683</v>
+      </c>
+      <c r="T18">
+        <v>0.0005111532573859685</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0.1101523333333333</v>
+      </c>
+      <c r="H19">
+        <v>0.330457</v>
+      </c>
+      <c r="I19">
+        <v>0.01828569120329971</v>
+      </c>
+      <c r="J19">
+        <v>0.01828569120329971</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>44.29005966666667</v>
+      </c>
+      <c r="N19">
+        <v>132.870179</v>
+      </c>
+      <c r="O19">
+        <v>0.6778141756295529</v>
+      </c>
+      <c r="P19">
+        <v>0.6778141756295529</v>
+      </c>
+      <c r="Q19">
+        <v>4.87865341575589</v>
+      </c>
+      <c r="R19">
+        <v>43.90788074180301</v>
+      </c>
+      <c r="S19">
+        <v>0.01239430070878116</v>
+      </c>
+      <c r="T19">
+        <v>0.01239430070878116</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>0.1101523333333333</v>
+      </c>
+      <c r="H20">
+        <v>0.330457</v>
+      </c>
+      <c r="I20">
+        <v>0.01828569120329971</v>
+      </c>
+      <c r="J20">
+        <v>0.01828569120329971</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>19.10886933333333</v>
+      </c>
+      <c r="N20">
+        <v>57.326608</v>
+      </c>
+      <c r="O20">
+        <v>0.2924417490485847</v>
+      </c>
+      <c r="P20">
+        <v>0.2924417490485847</v>
+      </c>
+      <c r="Q20">
+        <v>2.104886544428445</v>
+      </c>
+      <c r="R20">
+        <v>18.943978899856</v>
+      </c>
+      <c r="S20">
+        <v>0.005347499518055286</v>
+      </c>
+      <c r="T20">
+        <v>0.005347499518055287</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0.1101523333333333</v>
+      </c>
+      <c r="H21">
+        <v>0.330457</v>
+      </c>
+      <c r="I21">
+        <v>0.01828569120329971</v>
+      </c>
+      <c r="J21">
+        <v>0.01828569120329971</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M21">
+        <v>0.1169856666666667</v>
+      </c>
+      <c r="N21">
+        <v>0.350957</v>
+      </c>
+      <c r="O21">
+        <v>0.001790346272028586</v>
+      </c>
+      <c r="P21">
+        <v>0.001790346272028586</v>
+      </c>
+      <c r="Q21">
+        <v>0.01288624414988889</v>
+      </c>
+      <c r="R21">
+        <v>0.115976197349</v>
+      </c>
+      <c r="S21">
+        <v>3.273771907729354E-05</v>
+      </c>
+      <c r="T21">
+        <v>3.273771907729355E-05</v>
       </c>
     </row>
   </sheetData>
